--- a/Demo_Datasets/HW/Multi-Lingual Phrases - En Fr Es Pt.xlsx
+++ b/Demo_Datasets/HW/Multi-Lingual Phrases - En Fr Es Pt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Dropbox (Biostat Global)\MKT GitHub\vcqi-stata-bgc\LIBRARY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Biostat Global Dropbox\Dale Rhoda\DAR GitHub Repos\vcqi-stata-bgc\LIBRARY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB14471E-4638-439B-8536-6336556CE5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D645EC-F575-4D95-A37A-7190FB654824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="2808" windowWidth="17280" windowHeight="9048" xr2:uid="{50234D21-0CB7-4831-B1A7-1E2C296C3191}"/>
+    <workbookView xWindow="5865" yWindow="0" windowWidth="22935" windowHeight="15480" xr2:uid="{50234D21-0CB7-4831-B1A7-1E2C296C3191}"/>
   </bookViews>
   <sheets>
     <sheet name="Latest version" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1919">
   <si>
     <t>string_name</t>
   </si>
@@ -5426,9 +5426,6 @@
     <t>Had MOSV for any dose</t>
   </si>
   <si>
-    <t>MOSV and valid doses administered on visit day</t>
-  </si>
-  <si>
     <t>MOSV corrected for</t>
   </si>
   <si>
@@ -6015,6 +6012,18 @@
   </si>
   <si>
     <t>Não forneceu um motivo/sintoma</t>
+  </si>
+  <si>
+    <t>Doses valides reçues le jour de la visite</t>
+  </si>
+  <si>
+    <t>Dosis válidas recibidas en el día de la visita</t>
+  </si>
+  <si>
+    <t>Doses válidas recebidas no dia da visita</t>
+  </si>
+  <si>
+    <t>Valid doses received on visit day</t>
   </si>
 </sst>
 </file>
@@ -6501,19 +6510,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF4C18C-2D72-4199-BAD0-E065A11CBF01}">
   <dimension ref="A1:AQ384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E383" sqref="E383:E384"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.41796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="44.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.83984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.41796875" style="3"/>
-    <col min="3" max="3" width="50.26171875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="54.41796875" style="3" customWidth="1"/>
-    <col min="5" max="43" width="44.41796875" style="4"/>
-    <col min="44" max="16384" width="44.41796875" style="3"/>
+    <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="3"/>
+    <col min="3" max="3" width="50.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" style="3" customWidth="1"/>
+    <col min="5" max="43" width="44.42578125" style="4"/>
+    <col min="44" max="16384" width="44.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -6771,7 +6780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
@@ -6788,7 +6797,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -7043,7 +7052,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A32" s="3" t="s">
         <v>148</v>
       </c>
@@ -7060,7 +7069,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A33" s="3" t="s">
         <v>153</v>
       </c>
@@ -7077,7 +7086,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A34" s="3" t="s">
         <v>158</v>
       </c>
@@ -7094,7 +7103,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A35" s="3" t="s">
         <v>163</v>
       </c>
@@ -7145,7 +7154,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A38" s="3" t="s">
         <v>178</v>
       </c>
@@ -7269,16 +7278,16 @@
         <v>213</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1719</v>
+        <v>1918</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>215</v>
+        <v>1916</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>216</v>
+        <v>1915</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>217</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="4" customFormat="1">
@@ -7286,7 +7295,7 @@
         <v>218</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>220</v>
@@ -7303,7 +7312,7 @@
         <v>223</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>225</v>
@@ -7320,7 +7329,7 @@
         <v>228</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>230</v>
@@ -7383,7 +7392,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="57.6">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A52" s="3" t="s">
         <v>245</v>
       </c>
@@ -7400,7 +7409,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A53" s="3" t="s">
         <v>249</v>
       </c>
@@ -7575,7 +7584,7 @@
         <v>298</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>300</v>
@@ -7592,7 +7601,7 @@
         <v>303</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>305</v>
@@ -7609,7 +7618,7 @@
         <v>308</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>310</v>
@@ -7626,7 +7635,7 @@
         <v>313</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>315</v>
@@ -7643,7 +7652,7 @@
         <v>318</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>320</v>
@@ -7660,7 +7669,7 @@
         <v>323</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>325</v>
@@ -7694,7 +7703,7 @@
         <v>333</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>335</v>
@@ -7723,7 +7732,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A72" s="3" t="s">
         <v>343</v>
       </c>
@@ -7740,12 +7749,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="4" customFormat="1">
+    <row r="73" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A73" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>350</v>
@@ -7791,7 +7800,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A76" s="3" t="s">
         <v>361</v>
       </c>
@@ -7808,7 +7817,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A77" s="3" t="s">
         <v>366</v>
       </c>
@@ -7825,7 +7834,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A78" s="3" t="s">
         <v>371</v>
       </c>
@@ -7842,7 +7851,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A79" s="3" t="s">
         <v>375</v>
       </c>
@@ -7859,7 +7868,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A80" s="3" t="s">
         <v>380</v>
       </c>
@@ -7898,7 +7907,7 @@
         <v>388</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>390</v>
@@ -7915,7 +7924,7 @@
         <v>393</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>395</v>
@@ -8012,7 +8021,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="89" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A89" s="3" t="s">
         <v>423</v>
       </c>
@@ -8029,7 +8038,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="90" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A90" s="3" t="s">
         <v>428</v>
       </c>
@@ -8046,7 +8055,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="91" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A91" s="3" t="s">
         <v>433</v>
       </c>
@@ -8148,7 +8157,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="4" customFormat="1">
+    <row r="97" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A97" s="3" t="s">
         <v>463</v>
       </c>
@@ -8233,7 +8242,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="102" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A102" s="3" t="s">
         <v>488</v>
       </c>
@@ -8301,7 +8310,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="106" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A106" s="3" t="s">
         <v>508</v>
       </c>
@@ -8318,7 +8327,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="107" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A107" s="3" t="s">
         <v>513</v>
       </c>
@@ -8335,7 +8344,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="108" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A108" s="3" t="s">
         <v>518</v>
       </c>
@@ -8352,7 +8361,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="109" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A109" s="3" t="s">
         <v>523</v>
       </c>
@@ -8369,7 +8378,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="110" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A110" s="3" t="s">
         <v>528</v>
       </c>
@@ -8386,7 +8395,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="111" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A111" s="3" t="s">
         <v>533</v>
       </c>
@@ -8403,7 +8412,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="112" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A112" s="3" t="s">
         <v>538</v>
       </c>
@@ -8420,7 +8429,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="113" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A113" s="3" t="s">
         <v>543</v>
       </c>
@@ -8437,7 +8446,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="4" customFormat="1">
+    <row r="114" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A114" s="3" t="s">
         <v>548</v>
       </c>
@@ -8454,7 +8463,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="115" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A115" s="3" t="s">
         <v>553</v>
       </c>
@@ -8590,12 +8599,12 @@
         <v>592</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="123" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A123" s="3" t="s">
         <v>593</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>595</v>
@@ -8663,7 +8672,7 @@
         <v>613</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>615</v>
@@ -8692,12 +8701,12 @@
         <v>622</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="129" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A129" s="3" t="s">
         <v>623</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>625</v>
@@ -8743,7 +8752,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="132" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A132" s="3" t="s">
         <v>638</v>
       </c>
@@ -8760,7 +8769,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="133" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A133" s="3" t="s">
         <v>643</v>
       </c>
@@ -8777,7 +8786,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="4" customFormat="1" ht="72">
+    <row r="134" spans="1:5" s="4" customFormat="1" ht="75">
       <c r="A134" s="3" t="s">
         <v>648</v>
       </c>
@@ -8799,7 +8808,7 @@
         <v>653</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>655</v>
@@ -8845,7 +8854,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="138" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A138" s="3" t="s">
         <v>668</v>
       </c>
@@ -8862,7 +8871,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="139" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A139" s="3" t="s">
         <v>673</v>
       </c>
@@ -8879,7 +8888,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="140" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A140" s="3" t="s">
         <v>678</v>
       </c>
@@ -8896,12 +8905,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="141" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A141" s="3" t="s">
         <v>683</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>685</v>
@@ -8930,12 +8939,12 @@
         <v>692</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="143" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A143" s="3" t="s">
         <v>693</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>695</v>
@@ -8947,7 +8956,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="144" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A144" s="3" t="s">
         <v>698</v>
       </c>
@@ -8969,7 +8978,7 @@
         <v>703</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>705</v>
@@ -8986,7 +8995,7 @@
         <v>708</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>710</v>
@@ -9003,7 +9012,7 @@
         <v>713</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>715</v>
@@ -9015,7 +9024,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="148" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A148" s="3" t="s">
         <v>718</v>
       </c>
@@ -9032,12 +9041,12 @@
         <v>722</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="149" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A149" s="3" t="s">
         <v>723</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>725</v>
@@ -9054,7 +9063,7 @@
         <v>728</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>730</v>
@@ -9066,7 +9075,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="151" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A151" s="3" t="s">
         <v>733</v>
       </c>
@@ -9100,7 +9109,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="153" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A153" s="3" t="s">
         <v>743</v>
       </c>
@@ -9117,7 +9126,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="154" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A154" s="3" t="s">
         <v>748</v>
       </c>
@@ -9134,7 +9143,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="155" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A155" s="3" t="s">
         <v>753</v>
       </c>
@@ -9151,12 +9160,12 @@
         <v>757</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="156" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A156" s="3" t="s">
         <v>758</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>760</v>
@@ -9168,7 +9177,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="157" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A157" s="3" t="s">
         <v>763</v>
       </c>
@@ -9202,7 +9211,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="159" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A159" s="3" t="s">
         <v>773</v>
       </c>
@@ -9236,12 +9245,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="161" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A161" s="3" t="s">
         <v>783</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>785</v>
@@ -9253,7 +9262,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="162" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A162" s="3" t="s">
         <v>788</v>
       </c>
@@ -9270,12 +9279,12 @@
         <v>792</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="4" customFormat="1" ht="57.6">
+    <row r="163" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A163" s="3" t="s">
         <v>793</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>795</v>
@@ -9287,12 +9296,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="164" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A164" s="3" t="s">
         <v>798</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>800</v>
@@ -9309,7 +9318,7 @@
         <v>803</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>805</v>
@@ -9321,7 +9330,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="166" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A166" s="3" t="s">
         <v>808</v>
       </c>
@@ -9338,12 +9347,12 @@
         <v>812</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="167" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A167" s="3" t="s">
         <v>813</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>815</v>
@@ -9360,7 +9369,7 @@
         <v>818</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>820</v>
@@ -9372,7 +9381,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="4" customFormat="1" ht="57.6">
+    <row r="169" spans="1:5" s="4" customFormat="1" ht="75">
       <c r="A169" s="3" t="s">
         <v>823</v>
       </c>
@@ -9389,12 +9398,12 @@
         <v>827</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="170" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A170" s="3" t="s">
         <v>828</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>830</v>
@@ -9406,12 +9415,12 @@
         <v>832</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="171" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A171" s="3" t="s">
         <v>833</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>835</v>
@@ -9423,12 +9432,12 @@
         <v>837</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A172" s="3" t="s">
         <v>838</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>840</v>
@@ -9440,12 +9449,12 @@
         <v>842</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A173" s="3" t="s">
         <v>843</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>845</v>
@@ -9462,7 +9471,7 @@
         <v>848</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>850</v>
@@ -9508,7 +9517,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="4" customFormat="1">
+    <row r="177" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A177" s="3" t="s">
         <v>863</v>
       </c>
@@ -9525,7 +9534,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="178" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A178" s="3" t="s">
         <v>868</v>
       </c>
@@ -9559,7 +9568,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="4" customFormat="1" ht="57.6">
+    <row r="180" spans="1:5" s="4" customFormat="1" ht="75">
       <c r="A180" s="3" t="s">
         <v>878</v>
       </c>
@@ -9593,7 +9602,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="182" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A182" s="3" t="s">
         <v>888</v>
       </c>
@@ -9610,7 +9619,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="183" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A183" s="3" t="s">
         <v>893</v>
       </c>
@@ -9644,7 +9653,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="185" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A185" s="3" t="s">
         <v>903</v>
       </c>
@@ -9678,7 +9687,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="187" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A187" s="3" t="s">
         <v>913</v>
       </c>
@@ -9695,7 +9704,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="4" customFormat="1" ht="115.2">
+    <row r="188" spans="1:5" s="4" customFormat="1" ht="135">
       <c r="A188" s="3" t="s">
         <v>918</v>
       </c>
@@ -9712,7 +9721,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="4" customFormat="1" ht="72">
+    <row r="189" spans="1:5" s="4" customFormat="1" ht="75">
       <c r="A189" s="3" t="s">
         <v>923</v>
       </c>
@@ -9729,7 +9738,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="190" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A190" s="3" t="s">
         <v>928</v>
       </c>
@@ -9746,7 +9755,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="191" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A191" s="3" t="s">
         <v>933</v>
       </c>
@@ -9763,7 +9772,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="192" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A192" s="3" t="s">
         <v>938</v>
       </c>
@@ -9780,7 +9789,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="193" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A193" s="3" t="s">
         <v>943</v>
       </c>
@@ -9797,7 +9806,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="4" customFormat="1" ht="100.8">
+    <row r="194" spans="1:5" s="4" customFormat="1" ht="105">
       <c r="A194" s="3" t="s">
         <v>948</v>
       </c>
@@ -9814,7 +9823,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="4" customFormat="1" ht="86.4">
+    <row r="195" spans="1:5" s="4" customFormat="1" ht="105">
       <c r="A195" s="3" t="s">
         <v>953</v>
       </c>
@@ -9831,7 +9840,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="196" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A196" s="3" t="s">
         <v>958</v>
       </c>
@@ -9848,7 +9857,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="197" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A197" s="3" t="s">
         <v>963</v>
       </c>
@@ -9865,7 +9874,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="198" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A198" s="3" t="s">
         <v>968</v>
       </c>
@@ -9887,7 +9896,7 @@
         <v>973</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>975</v>
@@ -9904,7 +9913,7 @@
         <v>978</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>980</v>
@@ -9916,12 +9925,12 @@
         <v>982</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="201" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A201" s="3" t="s">
         <v>983</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>985</v>
@@ -10001,7 +10010,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="4" customFormat="1">
+    <row r="206" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A206" s="3" t="s">
         <v>1008</v>
       </c>
@@ -10018,7 +10027,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="4" customFormat="1">
+    <row r="207" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A207" s="3" t="s">
         <v>1013</v>
       </c>
@@ -10052,7 +10061,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="209" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A209" s="3" t="s">
         <v>1023</v>
       </c>
@@ -10069,7 +10078,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="210" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A210" s="3" t="s">
         <v>1028</v>
       </c>
@@ -10086,7 +10095,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="211" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A211" s="3" t="s">
         <v>1033</v>
       </c>
@@ -10120,7 +10129,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="213" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A213" s="3" t="s">
         <v>1043</v>
       </c>
@@ -10137,7 +10146,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="214" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A214" s="3" t="s">
         <v>1048</v>
       </c>
@@ -10154,7 +10163,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="215" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A215" s="3" t="s">
         <v>1053</v>
       </c>
@@ -10171,7 +10180,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="216" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A216" s="3" t="s">
         <v>1058</v>
       </c>
@@ -10188,7 +10197,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="217" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A217" s="3" t="s">
         <v>1063</v>
       </c>
@@ -10346,7 +10355,7 @@
         <v>1108</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>95</v>
@@ -10358,12 +10367,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="4" customFormat="1">
+    <row r="227" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A227" s="3" t="s">
         <v>1111</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>1113</v>
@@ -10380,7 +10389,7 @@
         <v>1116</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>1118</v>
@@ -10397,7 +10406,7 @@
         <v>1121</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>1123</v>
@@ -10414,7 +10423,7 @@
         <v>1126</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>1128</v>
@@ -10448,7 +10457,7 @@
         <v>1136</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>1138</v>
@@ -10460,7 +10469,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="233" spans="1:5" s="4" customFormat="1" ht="43" customHeight="1">
+    <row r="233" spans="1:5" s="4" customFormat="1" ht="42.95" customHeight="1">
       <c r="A233" s="3" t="s">
         <v>1141</v>
       </c>
@@ -10477,7 +10486,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="234" spans="1:5" s="4" customFormat="1">
+    <row r="234" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A234" s="3" t="s">
         <v>1146</v>
       </c>
@@ -10511,7 +10520,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="236" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A236" s="3" t="s">
         <v>1156</v>
       </c>
@@ -10528,7 +10537,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="237" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A237" s="3" t="s">
         <v>1160</v>
       </c>
@@ -10562,7 +10571,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="4" customFormat="1">
+    <row r="239" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A239" s="3" t="s">
         <v>1170</v>
       </c>
@@ -10579,7 +10588,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="240" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="240" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A240" s="3" t="s">
         <v>1175</v>
       </c>
@@ -10647,7 +10656,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="244" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="244" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A244" s="3" t="s">
         <v>1195</v>
       </c>
@@ -10664,7 +10673,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="245" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="245" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A245" s="3" t="s">
         <v>1200</v>
       </c>
@@ -10681,7 +10690,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="246" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="246" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A246" s="3" t="s">
         <v>1205</v>
       </c>
@@ -10715,7 +10724,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="248" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="248" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A248" s="3" t="s">
         <v>1215</v>
       </c>
@@ -10732,7 +10741,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="249" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A249" s="3" t="s">
         <v>1220</v>
       </c>
@@ -11208,7 +11217,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="28.8">
+    <row r="277" spans="1:5" ht="30">
       <c r="A277" s="3" t="s">
         <v>1358</v>
       </c>
@@ -11327,7 +11336,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" ht="30">
       <c r="A284" s="3" t="s">
         <v>1386</v>
       </c>
@@ -11344,7 +11353,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" ht="30">
       <c r="A285" s="3" t="s">
         <v>1387</v>
       </c>
@@ -11446,7 +11455,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="28.8">
+    <row r="291" spans="1:5" ht="30">
       <c r="A291" s="3" t="s">
         <v>1393</v>
       </c>
@@ -11480,7 +11489,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="28.8">
+    <row r="293" spans="1:5" ht="30">
       <c r="A293" s="3" t="s">
         <v>1395</v>
       </c>
@@ -11514,7 +11523,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="28.8">
+    <row r="295" spans="1:5" ht="30">
       <c r="A295" s="3" t="s">
         <v>1397</v>
       </c>
@@ -12024,7 +12033,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="28.8">
+    <row r="325" spans="1:5" ht="30">
       <c r="A325" s="3" t="s">
         <v>1495</v>
       </c>
@@ -12041,7 +12050,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="28.8">
+    <row r="326" spans="1:5" ht="30">
       <c r="A326" s="3" t="s">
         <v>1496</v>
       </c>
@@ -12092,7 +12101,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="28.8">
+    <row r="329" spans="1:5" ht="30">
       <c r="A329" s="3" t="s">
         <v>1499</v>
       </c>
@@ -12109,7 +12118,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="28.8">
+    <row r="330" spans="1:5" ht="30">
       <c r="A330" s="3" t="s">
         <v>1500</v>
       </c>
@@ -12126,7 +12135,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="28.8">
+    <row r="331" spans="1:5" ht="45">
       <c r="A331" s="3" t="s">
         <v>1501</v>
       </c>
@@ -12143,7 +12152,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="43.2">
+    <row r="332" spans="1:5" ht="45">
       <c r="A332" s="3" t="s">
         <v>1502</v>
       </c>
@@ -12160,7 +12169,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="28.8">
+    <row r="333" spans="1:5" ht="45">
       <c r="A333" s="3" t="s">
         <v>1503</v>
       </c>
@@ -12177,7 +12186,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" ht="30">
       <c r="A334" s="3" t="s">
         <v>1504</v>
       </c>
@@ -12233,7 +12242,7 @@
         <v>1507</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>1606</v>
@@ -12245,7 +12254,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="57.6">
+    <row r="338" spans="1:6" ht="60">
       <c r="A338" s="3" t="s">
         <v>1508</v>
       </c>
@@ -12262,24 +12271,24 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="57.6">
+    <row r="339" spans="1:6" ht="60">
       <c r="A339" s="3" t="s">
         <v>1509</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C339" s="11" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D339" s="11" t="s">
         <v>1871</v>
       </c>
-      <c r="D339" s="11" t="s">
+      <c r="E339" s="11" t="s">
         <v>1872</v>
       </c>
-      <c r="E339" s="11" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" ht="26.1">
+    </row>
+    <row r="340" spans="1:6" ht="30">
       <c r="A340" s="3" t="s">
         <v>1510</v>
       </c>
@@ -12297,7 +12306,7 @@
       </c>
       <c r="F340" s="14"/>
     </row>
-    <row r="341" spans="1:6" ht="28.8">
+    <row r="341" spans="1:6" ht="30">
       <c r="A341" s="3" t="s">
         <v>1511</v>
       </c>
@@ -12314,7 +12323,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="28.8">
+    <row r="342" spans="1:6" ht="30">
       <c r="A342" s="3" t="s">
         <v>1512</v>
       </c>
@@ -12331,7 +12340,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="28.8">
+    <row r="343" spans="1:6" ht="30">
       <c r="A343" s="3" t="s">
         <v>1513</v>
       </c>
@@ -12348,7 +12357,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="28.8">
+    <row r="344" spans="1:6" ht="30">
       <c r="A344" s="3" t="s">
         <v>1514</v>
       </c>
@@ -12382,7 +12391,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="28.8">
+    <row r="346" spans="1:6" ht="30">
       <c r="A346" s="3" t="s">
         <v>1516</v>
       </c>
@@ -12416,7 +12425,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="28.8">
+    <row r="348" spans="1:6" ht="30">
       <c r="A348" s="3" t="s">
         <v>1518</v>
       </c>
@@ -12509,13 +12518,13 @@
         <v>1708</v>
       </c>
       <c r="C353" s="15" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E353" s="15" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -12526,13 +12535,13 @@
         <v>1709</v>
       </c>
       <c r="C354" s="15" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E354" s="15" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -12543,506 +12552,506 @@
         <v>1710</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E355" s="15" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C357" s="15" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D357" s="15" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E357" s="15" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C358" s="15" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D358" s="15" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E358" s="15" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="3" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C359" s="15" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D359" s="15" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E359" s="15" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B360" s="15" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C360" s="15" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D360" s="15" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E360" s="15" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="30">
+      <c r="A361" s="3" t="s">
         <v>1790</v>
       </c>
-      <c r="B360" s="15" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C360" s="15" t="s">
+      <c r="B361" s="15" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C361" s="15" t="s">
         <v>1811</v>
       </c>
-      <c r="D360" s="15" t="s">
+      <c r="D361" s="15" t="s">
         <v>1820</v>
       </c>
-      <c r="E360" s="15" t="s">
+      <c r="E361" s="15" t="s">
         <v>1829</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="28.8">
-      <c r="A361" s="3" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B361" s="15" t="s">
-        <v>1801</v>
-      </c>
-      <c r="C361" s="15" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D361" s="15" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E361" s="15" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C362" s="15" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E362" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C363" s="15" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E363" s="15" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C364" s="15" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E364" s="15" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C365" s="15" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E365" s="15" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C367" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E367" s="15" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C368" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E368" s="15" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C369" s="15" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E369" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B370" s="15" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C370" s="15" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D370" s="15" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E370" s="15" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="30">
+      <c r="A371" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B371" s="15" t="s">
         <v>1838</v>
       </c>
-      <c r="C370" s="15" t="s">
+      <c r="C371" s="15" t="s">
         <v>1848</v>
       </c>
-      <c r="D370" s="15" t="s">
+      <c r="D371" s="15" t="s">
         <v>1855</v>
       </c>
-      <c r="E370" s="15" t="s">
+      <c r="E371" s="15" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
-      <c r="A371" s="3" t="s">
+    <row r="372" spans="1:5" ht="30">
+      <c r="A372" s="3" t="s">
         <v>1840</v>
       </c>
-      <c r="B371" s="15" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C371" s="15" t="s">
+      <c r="B372" s="15" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C372" s="15" t="s">
         <v>1849</v>
       </c>
-      <c r="D371" s="15" t="s">
+      <c r="D372" s="15" t="s">
         <v>1856</v>
       </c>
-      <c r="E371" s="15" t="s">
+      <c r="E372" s="15" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="28.8">
-      <c r="A372" s="3" t="s">
+    <row r="373" spans="1:5" ht="30">
+      <c r="A373" s="3" t="s">
         <v>1841</v>
       </c>
-      <c r="B372" s="15" t="s">
+      <c r="B373" s="15" t="s">
         <v>1843</v>
       </c>
-      <c r="C372" s="15" t="s">
+      <c r="C373" s="15" t="s">
         <v>1850</v>
       </c>
-      <c r="D372" s="15" t="s">
+      <c r="D373" s="15" t="s">
         <v>1857</v>
       </c>
-      <c r="E372" s="15" t="s">
+      <c r="E373" s="15" t="s">
         <v>1864</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="A373" s="3" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B373" s="15" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C373" s="15" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D373" s="15" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E373" s="15" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>1866</v>
       </c>
-      <c r="B374" s="1" t="s">
-        <v>1867</v>
-      </c>
       <c r="C374" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="3" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E376" s="15" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B377" s="15" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C377" s="15" t="s">
         <v>1878</v>
       </c>
-      <c r="C377" s="15" t="s">
+      <c r="D377" s="15" t="s">
         <v>1879</v>
       </c>
-      <c r="D377" s="15" t="s">
-        <v>1880</v>
-      </c>
       <c r="E377" s="15" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C378" s="15" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D378" s="15" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E378" s="15" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="3" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C379" s="15" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D379" s="15" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E379" s="15" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B380" s="15" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C380" s="15" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D380" s="15" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E380" s="15" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="30">
+      <c r="A381" s="3" t="s">
         <v>1885</v>
       </c>
-      <c r="B380" s="15" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C380" s="15" t="s">
+      <c r="B381" s="15" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C381" s="15" t="s">
         <v>1893</v>
       </c>
-      <c r="D380" s="15" t="s">
+      <c r="D381" s="15" t="s">
         <v>1899</v>
       </c>
-      <c r="E380" s="15" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="3" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B381" s="15" t="s">
+      <c r="E381" s="15" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="30">
+      <c r="A382" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B382" s="15" t="s">
         <v>1887</v>
       </c>
-      <c r="C381" s="15" t="s">
+      <c r="C382" s="15" t="s">
         <v>1894</v>
       </c>
-      <c r="D381" s="15" t="s">
+      <c r="D382" s="15" t="s">
         <v>1900</v>
       </c>
-      <c r="E381" s="15" t="s">
+      <c r="E382" s="15" t="s">
         <v>1903</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B382" s="15" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C382" s="15" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D382" s="15" t="s">
-        <v>1901</v>
-      </c>
-      <c r="E382" s="15" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C383" s="15" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="E383" s="15" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B384" s="15" t="s">
         <v>1908</v>
       </c>
-      <c r="B384" s="15" t="s">
-        <v>1909</v>
-      </c>
       <c r="C384" s="15" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D384" s="15" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E384" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
   </sheetData>
@@ -13062,49 +13071,49 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="16" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -13119,12 +13128,12 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
   </sheetData>
@@ -13142,14 +13151,14 @@
       <selection pane="bottomLeft" activeCell="B252" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.41796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="44.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.83984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.41796875" style="3"/>
-    <col min="3" max="3" width="50.26171875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="54.41796875" style="3" customWidth="1"/>
-    <col min="5" max="43" width="44.41796875" style="4"/>
-    <col min="44" max="16384" width="44.41796875" style="3"/>
+    <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="3"/>
+    <col min="3" max="3" width="50.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" style="3" customWidth="1"/>
+    <col min="5" max="43" width="44.42578125" style="4"/>
+    <col min="44" max="16384" width="44.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -13407,7 +13416,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
@@ -13424,7 +13433,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -13679,7 +13688,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A32" s="3" t="s">
         <v>148</v>
       </c>
@@ -13696,7 +13705,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A33" s="3" t="s">
         <v>153</v>
       </c>
@@ -13713,7 +13722,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A34" s="3" t="s">
         <v>158</v>
       </c>
@@ -13730,7 +13739,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A35" s="3" t="s">
         <v>163</v>
       </c>
@@ -13781,7 +13790,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A38" s="3" t="s">
         <v>178</v>
       </c>
@@ -13900,7 +13909,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="4" customFormat="1">
+    <row r="45" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A45" s="3" t="s">
         <v>213</v>
       </c>
@@ -14019,7 +14028,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="57.6">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A52" s="3" t="s">
         <v>245</v>
       </c>
@@ -14036,7 +14045,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A53" s="3" t="s">
         <v>249</v>
       </c>
@@ -14359,7 +14368,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A72" s="3" t="s">
         <v>343</v>
       </c>
@@ -14376,7 +14385,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="4" customFormat="1">
+    <row r="73" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A73" s="3" t="s">
         <v>348</v>
       </c>
@@ -14427,7 +14436,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A76" s="3" t="s">
         <v>361</v>
       </c>
@@ -14444,7 +14453,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A77" s="3" t="s">
         <v>366</v>
       </c>
@@ -14461,7 +14470,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A78" s="3" t="s">
         <v>371</v>
       </c>
@@ -14478,7 +14487,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A79" s="3" t="s">
         <v>375</v>
       </c>
@@ -14495,7 +14504,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A80" s="3" t="s">
         <v>380</v>
       </c>
@@ -14648,7 +14657,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="89" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A89" s="3" t="s">
         <v>423</v>
       </c>
@@ -14665,7 +14674,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="90" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A90" s="3" t="s">
         <v>428</v>
       </c>
@@ -14682,7 +14691,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="91" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A91" s="3" t="s">
         <v>433</v>
       </c>
@@ -14784,7 +14793,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="4" customFormat="1">
+    <row r="97" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A97" s="3" t="s">
         <v>463</v>
       </c>
@@ -14869,7 +14878,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="102" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A102" s="3" t="s">
         <v>488</v>
       </c>
@@ -14937,7 +14946,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="106" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A106" s="3" t="s">
         <v>508</v>
       </c>
@@ -14954,7 +14963,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="107" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A107" s="3" t="s">
         <v>513</v>
       </c>
@@ -14971,7 +14980,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="108" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A108" s="3" t="s">
         <v>518</v>
       </c>
@@ -14988,7 +14997,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="109" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A109" s="3" t="s">
         <v>523</v>
       </c>
@@ -15005,7 +15014,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="110" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A110" s="3" t="s">
         <v>528</v>
       </c>
@@ -15022,7 +15031,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="111" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A111" s="3" t="s">
         <v>533</v>
       </c>
@@ -15039,7 +15048,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="112" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A112" s="3" t="s">
         <v>538</v>
       </c>
@@ -15056,7 +15065,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="113" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A113" s="3" t="s">
         <v>543</v>
       </c>
@@ -15073,7 +15082,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="4" customFormat="1">
+    <row r="114" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A114" s="3" t="s">
         <v>548</v>
       </c>
@@ -15090,7 +15099,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="115" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A115" s="3" t="s">
         <v>553</v>
       </c>
@@ -15226,7 +15235,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="123" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A123" s="3" t="s">
         <v>593</v>
       </c>
@@ -15328,7 +15337,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="129" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A129" s="3" t="s">
         <v>623</v>
       </c>
@@ -15379,7 +15388,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="132" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A132" s="3" t="s">
         <v>638</v>
       </c>
@@ -15396,7 +15405,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="133" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A133" s="3" t="s">
         <v>643</v>
       </c>
@@ -15413,7 +15422,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="4" customFormat="1" ht="72">
+    <row r="134" spans="1:5" s="4" customFormat="1" ht="75">
       <c r="A134" s="3" t="s">
         <v>648</v>
       </c>
@@ -15481,7 +15490,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="138" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A138" s="3" t="s">
         <v>668</v>
       </c>
@@ -15498,7 +15507,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="139" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A139" s="3" t="s">
         <v>673</v>
       </c>
@@ -15515,7 +15524,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="140" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A140" s="3" t="s">
         <v>678</v>
       </c>
@@ -15532,7 +15541,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="141" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A141" s="3" t="s">
         <v>683</v>
       </c>
@@ -15566,7 +15575,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="143" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A143" s="3" t="s">
         <v>693</v>
       </c>
@@ -15583,7 +15592,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="144" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A144" s="3" t="s">
         <v>698</v>
       </c>
@@ -15651,7 +15660,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="148" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A148" s="3" t="s">
         <v>718</v>
       </c>
@@ -15668,7 +15677,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="149" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A149" s="3" t="s">
         <v>723</v>
       </c>
@@ -15702,7 +15711,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="151" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A151" s="3" t="s">
         <v>733</v>
       </c>
@@ -15736,7 +15745,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="153" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A153" s="3" t="s">
         <v>743</v>
       </c>
@@ -15753,7 +15762,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="154" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A154" s="3" t="s">
         <v>748</v>
       </c>
@@ -15770,7 +15779,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="155" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A155" s="3" t="s">
         <v>753</v>
       </c>
@@ -15787,7 +15796,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="156" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A156" s="3" t="s">
         <v>758</v>
       </c>
@@ -15804,7 +15813,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="157" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A157" s="3" t="s">
         <v>763</v>
       </c>
@@ -15838,7 +15847,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="159" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A159" s="3" t="s">
         <v>773</v>
       </c>
@@ -15872,7 +15881,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="161" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A161" s="3" t="s">
         <v>783</v>
       </c>
@@ -15889,7 +15898,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="162" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A162" s="3" t="s">
         <v>788</v>
       </c>
@@ -15906,7 +15915,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="4" customFormat="1" ht="57.6">
+    <row r="163" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A163" s="3" t="s">
         <v>793</v>
       </c>
@@ -15923,7 +15932,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="164" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A164" s="3" t="s">
         <v>798</v>
       </c>
@@ -15957,7 +15966,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="166" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A166" s="3" t="s">
         <v>808</v>
       </c>
@@ -15974,7 +15983,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="167" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A167" s="3" t="s">
         <v>813</v>
       </c>
@@ -16008,7 +16017,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="4" customFormat="1" ht="57.6">
+    <row r="169" spans="1:5" s="4" customFormat="1" ht="75">
       <c r="A169" s="3" t="s">
         <v>823</v>
       </c>
@@ -16025,7 +16034,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="170" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A170" s="3" t="s">
         <v>828</v>
       </c>
@@ -16042,7 +16051,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="171" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A171" s="3" t="s">
         <v>833</v>
       </c>
@@ -16059,7 +16068,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A172" s="3" t="s">
         <v>838</v>
       </c>
@@ -16076,7 +16085,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A173" s="3" t="s">
         <v>843</v>
       </c>
@@ -16144,7 +16153,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="4" customFormat="1">
+    <row r="177" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A177" s="3" t="s">
         <v>863</v>
       </c>
@@ -16161,7 +16170,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="178" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A178" s="3" t="s">
         <v>868</v>
       </c>
@@ -16195,7 +16204,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="4" customFormat="1" ht="57.6">
+    <row r="180" spans="1:5" s="4" customFormat="1" ht="75">
       <c r="A180" s="3" t="s">
         <v>878</v>
       </c>
@@ -16229,7 +16238,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="182" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A182" s="3" t="s">
         <v>888</v>
       </c>
@@ -16246,7 +16255,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="183" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A183" s="3" t="s">
         <v>893</v>
       </c>
@@ -16280,7 +16289,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="185" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A185" s="3" t="s">
         <v>903</v>
       </c>
@@ -16314,7 +16323,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="187" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A187" s="3" t="s">
         <v>913</v>
       </c>
@@ -16331,7 +16340,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="4" customFormat="1" ht="115.2">
+    <row r="188" spans="1:5" s="4" customFormat="1" ht="135">
       <c r="A188" s="3" t="s">
         <v>918</v>
       </c>
@@ -16348,7 +16357,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="4" customFormat="1" ht="72">
+    <row r="189" spans="1:5" s="4" customFormat="1" ht="75">
       <c r="A189" s="3" t="s">
         <v>923</v>
       </c>
@@ -16365,7 +16374,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="190" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A190" s="3" t="s">
         <v>928</v>
       </c>
@@ -16382,7 +16391,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="191" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A191" s="3" t="s">
         <v>933</v>
       </c>
@@ -16399,7 +16408,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="192" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A192" s="3" t="s">
         <v>938</v>
       </c>
@@ -16416,7 +16425,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="193" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A193" s="3" t="s">
         <v>943</v>
       </c>
@@ -16433,7 +16442,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="4" customFormat="1" ht="100.8">
+    <row r="194" spans="1:5" s="4" customFormat="1" ht="105">
       <c r="A194" s="3" t="s">
         <v>948</v>
       </c>
@@ -16450,7 +16459,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="4" customFormat="1" ht="86.4">
+    <row r="195" spans="1:5" s="4" customFormat="1" ht="105">
       <c r="A195" s="3" t="s">
         <v>953</v>
       </c>
@@ -16467,7 +16476,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="196" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A196" s="3" t="s">
         <v>958</v>
       </c>
@@ -16484,7 +16493,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="197" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A197" s="3" t="s">
         <v>963</v>
       </c>
@@ -16501,7 +16510,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="198" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A198" s="3" t="s">
         <v>968</v>
       </c>
@@ -16552,7 +16561,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="201" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A201" s="3" t="s">
         <v>983</v>
       </c>
@@ -16637,7 +16646,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="4" customFormat="1">
+    <row r="206" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A206" s="3" t="s">
         <v>1008</v>
       </c>
@@ -16654,7 +16663,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="4" customFormat="1">
+    <row r="207" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A207" s="3" t="s">
         <v>1013</v>
       </c>
@@ -16688,7 +16697,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="209" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A209" s="3" t="s">
         <v>1023</v>
       </c>
@@ -16705,7 +16714,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="210" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A210" s="3" t="s">
         <v>1028</v>
       </c>
@@ -16722,7 +16731,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="211" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A211" s="3" t="s">
         <v>1033</v>
       </c>
@@ -16756,7 +16765,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="213" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A213" s="3" t="s">
         <v>1043</v>
       </c>
@@ -16773,7 +16782,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="214" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A214" s="3" t="s">
         <v>1048</v>
       </c>
@@ -16790,7 +16799,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="215" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A215" s="3" t="s">
         <v>1053</v>
       </c>
@@ -16807,7 +16816,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="216" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A216" s="3" t="s">
         <v>1058</v>
       </c>
@@ -16824,7 +16833,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="217" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A217" s="3" t="s">
         <v>1063</v>
       </c>
@@ -16994,7 +17003,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="4" customFormat="1">
+    <row r="227" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A227" s="3" t="s">
         <v>1111</v>
       </c>
@@ -17096,7 +17105,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="233" spans="1:5" s="4" customFormat="1" ht="43" customHeight="1">
+    <row r="233" spans="1:5" s="4" customFormat="1" ht="42.95" customHeight="1">
       <c r="A233" s="3" t="s">
         <v>1141</v>
       </c>
@@ -17113,7 +17122,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="234" spans="1:5" s="4" customFormat="1">
+    <row r="234" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A234" s="3" t="s">
         <v>1146</v>
       </c>
@@ -17147,7 +17156,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="236" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A236" s="3" t="s">
         <v>1156</v>
       </c>
@@ -17164,7 +17173,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="237" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A237" s="3" t="s">
         <v>1160</v>
       </c>
@@ -17198,7 +17207,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="4" customFormat="1">
+    <row r="239" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A239" s="3" t="s">
         <v>1170</v>
       </c>
@@ -17215,7 +17224,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="240" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="240" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A240" s="3" t="s">
         <v>1175</v>
       </c>
@@ -17283,7 +17292,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="244" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="244" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A244" s="3" t="s">
         <v>1195</v>
       </c>
@@ -17300,7 +17309,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="245" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="245" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A245" s="3" t="s">
         <v>1200</v>
       </c>
@@ -17317,7 +17326,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="246" spans="1:5" s="4" customFormat="1" ht="43.2">
+    <row r="246" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A246" s="3" t="s">
         <v>1205</v>
       </c>
@@ -17351,7 +17360,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="248" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="248" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A248" s="3" t="s">
         <v>1215</v>
       </c>
@@ -17368,7 +17377,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="4" customFormat="1" ht="28.8">
+    <row r="249" spans="1:5" s="4" customFormat="1" ht="30">
       <c r="A249" s="3" t="s">
         <v>1220</v>
       </c>
@@ -17407,7 +17416,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78" bestFit="1" customWidth="1"/>
   </cols>

--- a/Demo_Datasets/HW/Multi-Lingual Phrases - En Fr Es Pt.xlsx
+++ b/Demo_Datasets/HW/Multi-Lingual Phrases - En Fr Es Pt.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Biostat Global Dropbox\Dale Rhoda\DAR GitHub Repos\vcqi-stata-bgc\LIBRARY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mia\Biostat Global Dropbox\Mia Yu\My Github Repost\missvcqiR\Demo_Datasets\ES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D645EC-F575-4D95-A37A-7190FB654824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9189F3-73DA-4734-8D13-75220CB91545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="0" windowWidth="22935" windowHeight="15480" xr2:uid="{50234D21-0CB7-4831-B1A7-1E2C296C3191}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{50234D21-0CB7-4831-B1A7-1E2C296C3191}"/>
   </bookViews>
   <sheets>
     <sheet name="Latest version" sheetId="1" r:id="rId1"/>
     <sheet name="questions" sheetId="4" r:id="rId2"/>
-    <sheet name="2020-05-20" sheetId="2" r:id="rId3"/>
-    <sheet name="Notes" sheetId="3" r:id="rId4"/>
+    <sheet name="2024-03-11" sheetId="5" r:id="rId3"/>
+    <sheet name="2020-05-20" sheetId="2" r:id="rId4"/>
+    <sheet name="Notes" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2024-03-11'!$A$1:$E$375</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Latest version'!$A$1:$E$375</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -139,6 +141,100 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Claudia Araujo</author>
+    <author>tc={C038DE83-AF79-4107-B86D-C5F360F75BF8}</author>
+  </authors>
+  <commentList>
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{899438E8-47E7-4A76-AF7E-EE75A61C3792}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Claudia Araujo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Traduzi dessa forma porque creio que o termo "missing" no original refira-se à informação sobre a escolaridade do cuidador.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E118" authorId="0" shapeId="0" xr:uid="{9A6DE571-D1DE-4D1C-8AF2-E52E7AA96E05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Claudia Araujo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+O correto não seria "1 and 2+ doses breakdown"? Nesse caso, a tradução seria "desagregação por 1 e 2+ doses".
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E241" authorId="0" shapeId="0" xr:uid="{6A66E167-4891-4FD2-9DCE-CC5E35376D2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Claudia Araujo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ A que se refere o "under" no original?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B315" authorId="1" shapeId="0" xr:uid="{C038DE83-AF79-4107-B86D-C5F360F75BF8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Should we translate INFO as INFORMATION?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Claudia Araujo</author>
   </authors>
   <commentList>
     <comment ref="E92" authorId="0" shapeId="0" xr:uid="{C2710371-BA5C-46D9-9949-9A541D366B72}">
@@ -221,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5125" uniqueCount="1945">
   <si>
     <t>string_name</t>
   </si>
@@ -6024,6 +6120,84 @@
   </si>
   <si>
     <t>Valid doses received on visit day</t>
+  </si>
+  <si>
+    <t>Related to Health Workers: Reasons for MOV from respondents who were eligible for 1+ doses</t>
+  </si>
+  <si>
+    <t>Relacionado con los trabajadores de la salud: motivos de la OPV de los encuestados que eran elegibles para recibir más de 1 dosis</t>
+  </si>
+  <si>
+    <t>Relacionado aos Profissionais de Saúde: Razões para OPV de entrevistados que eram elegíveis para 1+ doses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Concernant les agents de santé : raisons du  l'OMV des répondants qui étaient éligibles à plus d'une dose</t>
+  </si>
+  <si>
+    <t>OS_384</t>
+  </si>
+  <si>
+    <t>Related to Caregivers: Reasons for MOV from respondents who were not eligible for any doses</t>
+  </si>
+  <si>
+    <t>OS_385</t>
+  </si>
+  <si>
+    <t>OS_386</t>
+  </si>
+  <si>
+    <t>Related to Health Services: Reasons for MOV from respondents who were not eligible for any doses</t>
+  </si>
+  <si>
+    <t>Relacionado con Cuidadores: Razones de la OPV de los encuestados que no eran elegibles para recibir ninguna dosis</t>
+  </si>
+  <si>
+    <t>Relacionado aos Cuidadores: Razões para OPV de entrevistados que não eram elegíveis para nenhuma dose</t>
+  </si>
+  <si>
+    <t>Concernant les soignants : raisons du l'OMV des répondants qui n’étaient éligibles à aucune dose</t>
+  </si>
+  <si>
+    <t>Relacionado con los servicios de salud: motivos de la OPV de los encuestados que no eran elegibles para recibir ninguna dosis</t>
+  </si>
+  <si>
+    <t>Relacionado aos Serviços de Saúde: Razões para OPV de entrevistados que não eram elegíveis para nenhuma dose</t>
+  </si>
+  <si>
+    <t>Concernant les services de santé : raisons du l'OMV des répondants qui n'étaient éligibles à aucune dose</t>
+  </si>
+  <si>
+    <t>OS_387</t>
+  </si>
+  <si>
+    <t>OS_388</t>
+  </si>
+  <si>
+    <t>Related to Caregivers: Reasons for MOV from respondents who were eligible for 1+ doses</t>
+  </si>
+  <si>
+    <t>Related to Health Services: Reasons for MOV from respondents who were eligible for 1+ doses</t>
+  </si>
+  <si>
+    <t>Relacionado con los servicios de salud: motivos de la OPV de los encuestados que eran elegibles para recibir más de 1 dosis</t>
+  </si>
+  <si>
+    <t>Relacionado aos Serviços de Saúde: Razões para OPV de entrevistados que eram elegíveis para 1+ doses</t>
+  </si>
+  <si>
+    <t>Lié aux services de santé : raisons du l'OMV des répondants qui étaient éligibles à plus d'une dose</t>
+  </si>
+  <si>
+    <t>Concernant les soignants : raisons du l'OMV des répondants qui étaient éligibles à plus d'une dose</t>
+  </si>
+  <si>
+    <t>Relacionado aos Cuidadores: Razões para OPV de entrevistados que eram elegíveis para 1+ doses</t>
+  </si>
+  <si>
+    <t>Relacionado con Cuidadores: Razones de la OPV de los encuestados que eran elegibles para recibir más de 1 dosis</t>
+  </si>
+  <si>
+    <t>Update following strings: OS_225, OS_142, OS_148,  OS_149, OS_160, OS_384, OS_385, OS_386, OS_387, OS_388 on 2024-03-11</t>
   </si>
 </sst>
 </file>
@@ -6140,7 +6314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6180,6 +6354,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6204,9 +6381,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6244,7 +6421,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6350,7 +6527,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6492,7 +6669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6506,23 +6683,31 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B315" dT="2023-07-28T18:32:33.40" personId="{E7B63A35-CC3A-41D7-8925-08E0AF32BE29}" id="{C038DE83-AF79-4107-B86D-C5F360F75BF8}">
+    <text>Should we translate INFO as INFORMATION?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF4C18C-2D72-4199-BAD0-E065A11CBF01}">
-  <dimension ref="A1:AQ384"/>
+  <dimension ref="A1:AQ389"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E150" sqref="B150:E150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="44.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" style="3"/>
-    <col min="3" max="3" width="50.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" style="3" customWidth="1"/>
-    <col min="5" max="43" width="44.42578125" style="4"/>
-    <col min="44" max="16384" width="44.42578125" style="3"/>
+    <col min="1" max="1" width="16.86328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.3984375" style="3"/>
+    <col min="3" max="3" width="50.265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.3984375" style="3" customWidth="1"/>
+    <col min="5" max="43" width="44.3984375" style="4"/>
+    <col min="44" max="16384" width="44.3984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -6780,7 +6965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
@@ -6797,7 +6982,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="17" spans="1:5" s="4" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -6870,7 +7055,7 @@
         <v>93</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1713</v>
+        <v>1758</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>95</v>
@@ -7052,7 +7237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A32" s="3" t="s">
         <v>148</v>
       </c>
@@ -7069,7 +7254,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A33" s="3" t="s">
         <v>153</v>
       </c>
@@ -7086,7 +7271,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A34" s="3" t="s">
         <v>158</v>
       </c>
@@ -7103,7 +7288,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A35" s="3" t="s">
         <v>163</v>
       </c>
@@ -7154,7 +7339,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A38" s="3" t="s">
         <v>178</v>
       </c>
@@ -7392,7 +7577,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="57">
       <c r="A52" s="3" t="s">
         <v>245</v>
       </c>
@@ -7409,7 +7594,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A53" s="3" t="s">
         <v>249</v>
       </c>
@@ -7732,7 +7917,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A72" s="3" t="s">
         <v>343</v>
       </c>
@@ -7749,7 +7934,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="73" spans="1:5" s="4" customFormat="1">
       <c r="A73" s="3" t="s">
         <v>348</v>
       </c>
@@ -7800,7 +7985,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A76" s="3" t="s">
         <v>361</v>
       </c>
@@ -7817,7 +8002,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A77" s="3" t="s">
         <v>366</v>
       </c>
@@ -7834,7 +8019,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A78" s="3" t="s">
         <v>371</v>
       </c>
@@ -7851,7 +8036,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A79" s="3" t="s">
         <v>375</v>
       </c>
@@ -7868,7 +8053,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A80" s="3" t="s">
         <v>380</v>
       </c>
@@ -8021,7 +8206,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="89" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A89" s="3" t="s">
         <v>423</v>
       </c>
@@ -8038,7 +8223,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="90" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A90" s="3" t="s">
         <v>428</v>
       </c>
@@ -8055,7 +8240,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="91" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A91" s="3" t="s">
         <v>433</v>
       </c>
@@ -8157,7 +8342,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="97" spans="1:5" s="4" customFormat="1">
       <c r="A97" s="3" t="s">
         <v>463</v>
       </c>
@@ -8242,7 +8427,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="102" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A102" s="3" t="s">
         <v>488</v>
       </c>
@@ -8310,7 +8495,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="106" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A106" s="3" t="s">
         <v>508</v>
       </c>
@@ -8327,7 +8512,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="107" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A107" s="3" t="s">
         <v>513</v>
       </c>
@@ -8344,7 +8529,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="108" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A108" s="3" t="s">
         <v>518</v>
       </c>
@@ -8361,7 +8546,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="109" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A109" s="3" t="s">
         <v>523</v>
       </c>
@@ -8378,7 +8563,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="110" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A110" s="3" t="s">
         <v>528</v>
       </c>
@@ -8395,7 +8580,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="111" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A111" s="3" t="s">
         <v>533</v>
       </c>
@@ -8412,7 +8597,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="112" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A112" s="3" t="s">
         <v>538</v>
       </c>
@@ -8429,7 +8614,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="113" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A113" s="3" t="s">
         <v>543</v>
       </c>
@@ -8446,7 +8631,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="114" spans="1:5" s="4" customFormat="1">
       <c r="A114" s="3" t="s">
         <v>548</v>
       </c>
@@ -8463,7 +8648,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="115" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A115" s="3" t="s">
         <v>553</v>
       </c>
@@ -8599,7 +8784,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="123" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A123" s="3" t="s">
         <v>593</v>
       </c>
@@ -8701,7 +8886,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="129" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A129" s="3" t="s">
         <v>623</v>
       </c>
@@ -8752,7 +8937,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="132" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A132" s="3" t="s">
         <v>638</v>
       </c>
@@ -8769,7 +8954,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="133" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A133" s="3" t="s">
         <v>643</v>
       </c>
@@ -8786,7 +8971,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="4" customFormat="1" ht="75">
+    <row r="134" spans="1:5" s="4" customFormat="1" ht="71.25">
       <c r="A134" s="3" t="s">
         <v>648</v>
       </c>
@@ -8854,7 +9039,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="138" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A138" s="3" t="s">
         <v>668</v>
       </c>
@@ -8871,7 +9056,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="139" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A139" s="3" t="s">
         <v>673</v>
       </c>
@@ -8888,7 +9073,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="140" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A140" s="3" t="s">
         <v>678</v>
       </c>
@@ -8905,7 +9090,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="141" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A141" s="3" t="s">
         <v>683</v>
       </c>
@@ -8939,24 +9124,24 @@
         <v>692</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="143" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A143" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C143" s="7" t="s">
+      <c r="B143" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="144" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A144" s="3" t="s">
         <v>698</v>
       </c>
@@ -9024,7 +9209,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="148" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A148" s="3" t="s">
         <v>718</v>
       </c>
@@ -9041,20 +9226,20 @@
         <v>722</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="149" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A149" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C149" s="7" t="s">
+      <c r="B149" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="1" t="s">
         <v>727</v>
       </c>
     </row>
@@ -9062,20 +9247,20 @@
       <c r="A150" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C150" s="7" t="s">
+      <c r="B150" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C150" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="151" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A151" s="3" t="s">
         <v>733</v>
       </c>
@@ -9109,7 +9294,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="153" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A153" s="3" t="s">
         <v>743</v>
       </c>
@@ -9126,7 +9311,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="154" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A154" s="3" t="s">
         <v>748</v>
       </c>
@@ -9143,7 +9328,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="155" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A155" s="3" t="s">
         <v>753</v>
       </c>
@@ -9160,7 +9345,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="156" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A156" s="3" t="s">
         <v>758</v>
       </c>
@@ -9177,7 +9362,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="157" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A157" s="3" t="s">
         <v>763</v>
       </c>
@@ -9211,7 +9396,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="159" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A159" s="3" t="s">
         <v>773</v>
       </c>
@@ -9245,24 +9430,24 @@
         <v>782</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="161" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A161" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C161" s="7" t="s">
+      <c r="B161" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C161" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="162" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A162" s="3" t="s">
         <v>788</v>
       </c>
@@ -9279,7 +9464,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="163" spans="1:5" s="4" customFormat="1" ht="57">
       <c r="A163" s="3" t="s">
         <v>793</v>
       </c>
@@ -9296,7 +9481,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="164" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A164" s="3" t="s">
         <v>798</v>
       </c>
@@ -9330,7 +9515,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="166" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A166" s="3" t="s">
         <v>808</v>
       </c>
@@ -9347,7 +9532,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="167" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A167" s="3" t="s">
         <v>813</v>
       </c>
@@ -9381,7 +9566,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="4" customFormat="1" ht="75">
+    <row r="169" spans="1:5" s="4" customFormat="1" ht="57">
       <c r="A169" s="3" t="s">
         <v>823</v>
       </c>
@@ -9398,7 +9583,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="170" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A170" s="3" t="s">
         <v>828</v>
       </c>
@@ -9415,7 +9600,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="171" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A171" s="3" t="s">
         <v>833</v>
       </c>
@@ -9432,7 +9617,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A172" s="3" t="s">
         <v>838</v>
       </c>
@@ -9449,7 +9634,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A173" s="3" t="s">
         <v>843</v>
       </c>
@@ -9517,7 +9702,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="177" spans="1:5" s="4" customFormat="1">
       <c r="A177" s="3" t="s">
         <v>863</v>
       </c>
@@ -9534,7 +9719,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="178" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A178" s="3" t="s">
         <v>868</v>
       </c>
@@ -9568,7 +9753,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="4" customFormat="1" ht="75">
+    <row r="180" spans="1:5" s="4" customFormat="1" ht="57">
       <c r="A180" s="3" t="s">
         <v>878</v>
       </c>
@@ -9602,7 +9787,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="182" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A182" s="3" t="s">
         <v>888</v>
       </c>
@@ -9619,7 +9804,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="183" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A183" s="3" t="s">
         <v>893</v>
       </c>
@@ -9653,7 +9838,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="185" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A185" s="3" t="s">
         <v>903</v>
       </c>
@@ -9687,7 +9872,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="187" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A187" s="3" t="s">
         <v>913</v>
       </c>
@@ -9704,7 +9889,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="4" customFormat="1" ht="135">
+    <row r="188" spans="1:5" s="4" customFormat="1" ht="114">
       <c r="A188" s="3" t="s">
         <v>918</v>
       </c>
@@ -9721,7 +9906,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="4" customFormat="1" ht="75">
+    <row r="189" spans="1:5" s="4" customFormat="1" ht="71.25">
       <c r="A189" s="3" t="s">
         <v>923</v>
       </c>
@@ -9738,7 +9923,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="190" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A190" s="3" t="s">
         <v>928</v>
       </c>
@@ -9755,7 +9940,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="191" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A191" s="3" t="s">
         <v>933</v>
       </c>
@@ -9772,7 +9957,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="192" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A192" s="3" t="s">
         <v>938</v>
       </c>
@@ -9789,7 +9974,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="193" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A193" s="3" t="s">
         <v>943</v>
       </c>
@@ -9806,7 +9991,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="4" customFormat="1" ht="105">
+    <row r="194" spans="1:5" s="4" customFormat="1" ht="99.75">
       <c r="A194" s="3" t="s">
         <v>948</v>
       </c>
@@ -9823,7 +10008,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="4" customFormat="1" ht="105">
+    <row r="195" spans="1:5" s="4" customFormat="1" ht="85.5">
       <c r="A195" s="3" t="s">
         <v>953</v>
       </c>
@@ -9840,7 +10025,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="196" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A196" s="3" t="s">
         <v>958</v>
       </c>
@@ -9857,7 +10042,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="197" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A197" s="3" t="s">
         <v>963</v>
       </c>
@@ -9874,7 +10059,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="198" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A198" s="3" t="s">
         <v>968</v>
       </c>
@@ -9925,7 +10110,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="201" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A201" s="3" t="s">
         <v>983</v>
       </c>
@@ -10010,7 +10195,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="206" spans="1:5" s="4" customFormat="1">
       <c r="A206" s="3" t="s">
         <v>1008</v>
       </c>
@@ -10027,7 +10212,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="207" spans="1:5" s="4" customFormat="1">
       <c r="A207" s="3" t="s">
         <v>1013</v>
       </c>
@@ -10061,7 +10246,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="209" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A209" s="3" t="s">
         <v>1023</v>
       </c>
@@ -10078,7 +10263,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="210" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A210" s="3" t="s">
         <v>1028</v>
       </c>
@@ -10095,7 +10280,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="211" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A211" s="3" t="s">
         <v>1033</v>
       </c>
@@ -10129,7 +10314,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="213" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A213" s="3" t="s">
         <v>1043</v>
       </c>
@@ -10146,7 +10331,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="214" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A214" s="3" t="s">
         <v>1048</v>
       </c>
@@ -10163,7 +10348,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="215" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A215" s="3" t="s">
         <v>1053</v>
       </c>
@@ -10180,7 +10365,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="216" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A216" s="3" t="s">
         <v>1058</v>
       </c>
@@ -10197,7 +10382,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="217" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A217" s="3" t="s">
         <v>1063</v>
       </c>
@@ -10354,20 +10539,20 @@
       <c r="A226" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C226" s="7" t="s">
+      <c r="B226" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C226" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D226" s="6" t="s">
+      <c r="D226" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="E226" s="6" t="s">
+      <c r="E226" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="227" spans="1:5" s="4" customFormat="1">
       <c r="A227" s="3" t="s">
         <v>1111</v>
       </c>
@@ -10486,7 +10671,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="234" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="234" spans="1:5" s="4" customFormat="1">
       <c r="A234" s="3" t="s">
         <v>1146</v>
       </c>
@@ -10520,7 +10705,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="236" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A236" s="3" t="s">
         <v>1156</v>
       </c>
@@ -10537,7 +10722,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="237" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A237" s="3" t="s">
         <v>1160</v>
       </c>
@@ -10571,7 +10756,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="239" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A239" s="3" t="s">
         <v>1170</v>
       </c>
@@ -10588,7 +10773,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="240" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="240" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A240" s="3" t="s">
         <v>1175</v>
       </c>
@@ -10656,7 +10841,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="244" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="244" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A244" s="3" t="s">
         <v>1195</v>
       </c>
@@ -10673,7 +10858,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="245" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="245" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A245" s="3" t="s">
         <v>1200</v>
       </c>
@@ -10690,7 +10875,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="246" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="246" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A246" s="3" t="s">
         <v>1205</v>
       </c>
@@ -10724,7 +10909,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="248" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="248" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A248" s="3" t="s">
         <v>1215</v>
       </c>
@@ -10741,7 +10926,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="249" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A249" s="3" t="s">
         <v>1220</v>
       </c>
@@ -11217,7 +11402,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="30">
+    <row r="277" spans="1:5" ht="28.5">
       <c r="A277" s="3" t="s">
         <v>1358</v>
       </c>
@@ -11336,7 +11521,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="30">
+    <row r="284" spans="1:5">
       <c r="A284" s="3" t="s">
         <v>1386</v>
       </c>
@@ -11353,7 +11538,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="30">
+    <row r="285" spans="1:5">
       <c r="A285" s="3" t="s">
         <v>1387</v>
       </c>
@@ -11455,7 +11640,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="30">
+    <row r="291" spans="1:5" ht="28.5">
       <c r="A291" s="3" t="s">
         <v>1393</v>
       </c>
@@ -11489,7 +11674,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="30">
+    <row r="293" spans="1:5" ht="28.5">
       <c r="A293" s="3" t="s">
         <v>1395</v>
       </c>
@@ -11523,7 +11708,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="30">
+    <row r="295" spans="1:5" ht="28.5">
       <c r="A295" s="3" t="s">
         <v>1397</v>
       </c>
@@ -12033,7 +12218,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="30">
+    <row r="325" spans="1:5" ht="28.5">
       <c r="A325" s="3" t="s">
         <v>1495</v>
       </c>
@@ -12050,7 +12235,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="30">
+    <row r="326" spans="1:5" ht="28.5">
       <c r="A326" s="3" t="s">
         <v>1496</v>
       </c>
@@ -12101,7 +12286,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="30">
+    <row r="329" spans="1:5" ht="28.5">
       <c r="A329" s="3" t="s">
         <v>1499</v>
       </c>
@@ -12118,7 +12303,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="30">
+    <row r="330" spans="1:5" ht="28.5">
       <c r="A330" s="3" t="s">
         <v>1500</v>
       </c>
@@ -12135,7 +12320,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="45">
+    <row r="331" spans="1:5" ht="42.75">
       <c r="A331" s="3" t="s">
         <v>1501</v>
       </c>
@@ -12152,7 +12337,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="45">
+    <row r="332" spans="1:5" ht="42.75">
       <c r="A332" s="3" t="s">
         <v>1502</v>
       </c>
@@ -12169,7 +12354,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="45">
+    <row r="333" spans="1:5" ht="28.5">
       <c r="A333" s="3" t="s">
         <v>1503</v>
       </c>
@@ -12186,7 +12371,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="30">
+    <row r="334" spans="1:5">
       <c r="A334" s="3" t="s">
         <v>1504</v>
       </c>
@@ -12254,7 +12439,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="60">
+    <row r="338" spans="1:6" ht="57">
       <c r="A338" s="3" t="s">
         <v>1508</v>
       </c>
@@ -12271,7 +12456,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="60">
+    <row r="339" spans="1:6" ht="57">
       <c r="A339" s="3" t="s">
         <v>1509</v>
       </c>
@@ -12288,7 +12473,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="30">
+    <row r="340" spans="1:6" ht="26.25">
       <c r="A340" s="3" t="s">
         <v>1510</v>
       </c>
@@ -12306,7 +12491,7 @@
       </c>
       <c r="F340" s="14"/>
     </row>
-    <row r="341" spans="1:6" ht="30">
+    <row r="341" spans="1:6" ht="28.5">
       <c r="A341" s="3" t="s">
         <v>1511</v>
       </c>
@@ -12323,7 +12508,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="30">
+    <row r="342" spans="1:6" ht="28.5">
       <c r="A342" s="3" t="s">
         <v>1512</v>
       </c>
@@ -12340,7 +12525,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="30">
+    <row r="343" spans="1:6" ht="28.5">
       <c r="A343" s="3" t="s">
         <v>1513</v>
       </c>
@@ -12357,7 +12542,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="30">
+    <row r="344" spans="1:6" ht="28.5">
       <c r="A344" s="3" t="s">
         <v>1514</v>
       </c>
@@ -12391,7 +12576,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="30">
+    <row r="346" spans="1:6" ht="28.5">
       <c r="A346" s="3" t="s">
         <v>1516</v>
       </c>
@@ -12425,7 +12610,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="30">
+    <row r="348" spans="1:6" ht="28.5">
       <c r="A348" s="3" t="s">
         <v>1518</v>
       </c>
@@ -12646,7 +12831,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="30">
+    <row r="361" spans="1:5" ht="28.5">
       <c r="A361" s="3" t="s">
         <v>1790</v>
       </c>
@@ -12816,7 +13001,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="30">
+    <row r="371" spans="1:5">
       <c r="A371" s="3" t="s">
         <v>1839</v>
       </c>
@@ -12833,7 +13018,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="30">
+    <row r="372" spans="1:5" ht="28.5">
       <c r="A372" s="3" t="s">
         <v>1840</v>
       </c>
@@ -12850,7 +13035,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="30">
+    <row r="373" spans="1:5">
       <c r="A373" s="3" t="s">
         <v>1841</v>
       </c>
@@ -12986,7 +13171,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="30">
+    <row r="381" spans="1:5">
       <c r="A381" s="3" t="s">
         <v>1885</v>
       </c>
@@ -13003,7 +13188,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="30">
+    <row r="382" spans="1:5">
       <c r="A382" s="3" t="s">
         <v>1888</v>
       </c>
@@ -13052,6 +13237,91 @@
       </c>
       <c r="E384" s="15" t="s">
         <v>1914</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A385" s="3" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C385" s="17" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A386" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C386" s="17" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A387" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C387" s="17" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A388" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C388" s="17" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A389" s="3" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C389" s="17" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>1939</v>
       </c>
     </row>
   </sheetData>
@@ -13071,9 +13341,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -13143,22 +13413,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9071EFD0-1812-427C-B2F8-319A20F057E5}">
-  <dimension ref="A1:AQ250"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265DE6ED-25F7-46C0-A313-3CC04B49067F}">
+  <dimension ref="A1:AQ384"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B252" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149:XFD149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="44.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" style="3"/>
-    <col min="3" max="3" width="50.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" style="3" customWidth="1"/>
-    <col min="5" max="43" width="44.42578125" style="4"/>
-    <col min="44" max="16384" width="44.42578125" style="3"/>
+    <col min="1" max="1" width="16.86328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.3984375" style="3"/>
+    <col min="3" max="3" width="50.265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.3984375" style="3" customWidth="1"/>
+    <col min="5" max="43" width="44.3984375" style="4"/>
+    <col min="44" max="16384" width="44.3984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -13268,7 +13538,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>1711</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -13285,7 +13555,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>1712</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>30</v>
@@ -13416,7 +13686,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
@@ -13433,7 +13703,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="17" spans="1:5" s="4" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -13506,7 +13776,7 @@
         <v>93</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>94</v>
+        <v>1713</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>95</v>
@@ -13523,7 +13793,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>99</v>
+        <v>1714</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>100</v>
@@ -13540,7 +13810,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>104</v>
+        <v>1715</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>105</v>
@@ -13557,7 +13827,7 @@
         <v>108</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>109</v>
+        <v>1716</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>110</v>
@@ -13574,7 +13844,7 @@
         <v>113</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>114</v>
+        <v>1717</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>115</v>
@@ -13591,7 +13861,7 @@
         <v>118</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>119</v>
+        <v>1718</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>120</v>
@@ -13688,7 +13958,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A32" s="3" t="s">
         <v>148</v>
       </c>
@@ -13705,7 +13975,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A33" s="3" t="s">
         <v>153</v>
       </c>
@@ -13722,7 +13992,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A34" s="3" t="s">
         <v>158</v>
       </c>
@@ -13739,7 +14009,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A35" s="3" t="s">
         <v>163</v>
       </c>
@@ -13790,7 +14060,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A38" s="3" t="s">
         <v>178</v>
       </c>
@@ -13909,21 +14179,21 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="45" spans="1:5" s="4" customFormat="1">
       <c r="A45" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>214</v>
+        <v>1918</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>215</v>
+        <v>1916</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>216</v>
+        <v>1915</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>217</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="4" customFormat="1">
@@ -13931,7 +14201,7 @@
         <v>218</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>219</v>
+        <v>1719</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>220</v>
@@ -13948,7 +14218,7 @@
         <v>223</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>224</v>
+        <v>1720</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>225</v>
@@ -13965,7 +14235,7 @@
         <v>228</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>229</v>
+        <v>1721</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>230</v>
@@ -14028,7 +14298,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="57">
       <c r="A52" s="3" t="s">
         <v>245</v>
       </c>
@@ -14045,7 +14315,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A53" s="3" t="s">
         <v>249</v>
       </c>
@@ -14220,7 +14490,7 @@
         <v>298</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>299</v>
+        <v>1722</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>300</v>
@@ -14237,7 +14507,7 @@
         <v>303</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>304</v>
+        <v>1723</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>305</v>
@@ -14254,7 +14524,7 @@
         <v>308</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>309</v>
+        <v>1724</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>310</v>
@@ -14271,7 +14541,7 @@
         <v>313</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>314</v>
+        <v>1725</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>315</v>
@@ -14288,7 +14558,7 @@
         <v>318</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>319</v>
+        <v>1726</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>320</v>
@@ -14305,7 +14575,7 @@
         <v>323</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>324</v>
+        <v>1727</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>325</v>
@@ -14339,7 +14609,7 @@
         <v>333</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>334</v>
+        <v>1728</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>335</v>
@@ -14368,7 +14638,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A72" s="3" t="s">
         <v>343</v>
       </c>
@@ -14385,12 +14655,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="73" spans="1:5" s="4" customFormat="1">
       <c r="A73" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>349</v>
+        <v>1729</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>350</v>
@@ -14426,7 +14696,7 @@
       <c r="B75" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>360</v>
       </c>
       <c r="D75" s="6" t="s">
@@ -14436,7 +14706,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A76" s="3" t="s">
         <v>361</v>
       </c>
@@ -14453,7 +14723,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A77" s="3" t="s">
         <v>366</v>
       </c>
@@ -14470,7 +14740,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A78" s="3" t="s">
         <v>371</v>
       </c>
@@ -14487,7 +14757,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A79" s="3" t="s">
         <v>375</v>
       </c>
@@ -14504,7 +14774,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A80" s="3" t="s">
         <v>380</v>
       </c>
@@ -14543,7 +14813,7 @@
         <v>388</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>389</v>
+        <v>1730</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>390</v>
@@ -14560,7 +14830,7 @@
         <v>393</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>394</v>
+        <v>1731</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>395</v>
@@ -14657,7 +14927,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="89" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A89" s="3" t="s">
         <v>423</v>
       </c>
@@ -14674,7 +14944,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="90" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A90" s="3" t="s">
         <v>428</v>
       </c>
@@ -14691,7 +14961,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="91" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A91" s="3" t="s">
         <v>433</v>
       </c>
@@ -14793,7 +15063,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="97" spans="1:5" s="4" customFormat="1">
       <c r="A97" s="3" t="s">
         <v>463</v>
       </c>
@@ -14878,7 +15148,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="102" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A102" s="3" t="s">
         <v>488</v>
       </c>
@@ -14946,7 +15216,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="106" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A106" s="3" t="s">
         <v>508</v>
       </c>
@@ -14963,7 +15233,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="107" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A107" s="3" t="s">
         <v>513</v>
       </c>
@@ -14980,7 +15250,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="108" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A108" s="3" t="s">
         <v>518</v>
       </c>
@@ -14997,7 +15267,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="109" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A109" s="3" t="s">
         <v>523</v>
       </c>
@@ -15014,7 +15284,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="110" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A110" s="3" t="s">
         <v>528</v>
       </c>
@@ -15031,7 +15301,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="111" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A111" s="3" t="s">
         <v>533</v>
       </c>
@@ -15048,7 +15318,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="112" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A112" s="3" t="s">
         <v>538</v>
       </c>
@@ -15065,7 +15335,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="113" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A113" s="3" t="s">
         <v>543</v>
       </c>
@@ -15082,7 +15352,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="114" spans="1:5" s="4" customFormat="1">
       <c r="A114" s="3" t="s">
         <v>548</v>
       </c>
@@ -15099,7 +15369,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="115" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A115" s="3" t="s">
         <v>553</v>
       </c>
@@ -15235,12 +15505,12 @@
         <v>592</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="123" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A123" s="3" t="s">
         <v>593</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>594</v>
+        <v>1732</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>595</v>
@@ -15308,7 +15578,7 @@
         <v>613</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>614</v>
+        <v>1733</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>615</v>
@@ -15337,12 +15607,12 @@
         <v>622</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="129" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A129" s="3" t="s">
         <v>623</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>624</v>
+        <v>1734</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>625</v>
@@ -15388,7 +15658,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="132" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A132" s="3" t="s">
         <v>638</v>
       </c>
@@ -15405,7 +15675,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="133" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A133" s="3" t="s">
         <v>643</v>
       </c>
@@ -15422,7 +15692,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="4" customFormat="1" ht="75">
+    <row r="134" spans="1:5" s="4" customFormat="1" ht="71.25">
       <c r="A134" s="3" t="s">
         <v>648</v>
       </c>
@@ -15444,7 +15714,7 @@
         <v>653</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>654</v>
+        <v>1735</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>655</v>
@@ -15490,7 +15760,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="138" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A138" s="3" t="s">
         <v>668</v>
       </c>
@@ -15507,7 +15777,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="139" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A139" s="3" t="s">
         <v>673</v>
       </c>
@@ -15524,7 +15794,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="140" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A140" s="3" t="s">
         <v>678</v>
       </c>
@@ -15541,12 +15811,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="141" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A141" s="3" t="s">
         <v>683</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>684</v>
+        <v>1736</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>685</v>
@@ -15575,12 +15845,12 @@
         <v>692</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="143" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A143" s="3" t="s">
         <v>693</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>694</v>
+        <v>1737</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>695</v>
@@ -15592,7 +15862,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="144" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A144" s="3" t="s">
         <v>698</v>
       </c>
@@ -15614,7 +15884,7 @@
         <v>703</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>704</v>
+        <v>1738</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>705</v>
@@ -15631,7 +15901,7 @@
         <v>708</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>709</v>
+        <v>1739</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>710</v>
@@ -15648,7 +15918,7 @@
         <v>713</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>714</v>
+        <v>1740</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>715</v>
@@ -15660,7 +15930,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="148" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A148" s="3" t="s">
         <v>718</v>
       </c>
@@ -15677,12 +15947,12 @@
         <v>722</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="149" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A149" s="3" t="s">
         <v>723</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>724</v>
+        <v>1741</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>725</v>
@@ -15699,7 +15969,7 @@
         <v>728</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>729</v>
+        <v>1742</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>730</v>
@@ -15711,7 +15981,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="151" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A151" s="3" t="s">
         <v>733</v>
       </c>
@@ -15745,7 +16015,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="153" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A153" s="3" t="s">
         <v>743</v>
       </c>
@@ -15762,7 +16032,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="154" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A154" s="3" t="s">
         <v>748</v>
       </c>
@@ -15779,7 +16049,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="155" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A155" s="3" t="s">
         <v>753</v>
       </c>
@@ -15796,12 +16066,12 @@
         <v>757</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="156" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A156" s="3" t="s">
         <v>758</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>759</v>
+        <v>1743</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>760</v>
@@ -15813,7 +16083,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="157" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A157" s="3" t="s">
         <v>763</v>
       </c>
@@ -15847,7 +16117,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="159" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A159" s="3" t="s">
         <v>773</v>
       </c>
@@ -15881,12 +16151,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="161" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A161" s="3" t="s">
         <v>783</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>784</v>
+        <v>1744</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>785</v>
@@ -15898,7 +16168,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="162" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A162" s="3" t="s">
         <v>788</v>
       </c>
@@ -15915,12 +16185,12 @@
         <v>792</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="163" spans="1:5" s="4" customFormat="1" ht="57">
       <c r="A163" s="3" t="s">
         <v>793</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>794</v>
+        <v>1745</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>795</v>
@@ -15932,12 +16202,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="164" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A164" s="3" t="s">
         <v>798</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>799</v>
+        <v>1746</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>800</v>
@@ -15954,7 +16224,7 @@
         <v>803</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>804</v>
+        <v>1747</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>805</v>
@@ -15966,7 +16236,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="166" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A166" s="3" t="s">
         <v>808</v>
       </c>
@@ -15983,12 +16253,12 @@
         <v>812</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="167" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A167" s="3" t="s">
         <v>813</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>814</v>
+        <v>1748</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>815</v>
@@ -16005,7 +16275,7 @@
         <v>818</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>819</v>
+        <v>1749</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>820</v>
@@ -16017,7 +16287,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="4" customFormat="1" ht="75">
+    <row r="169" spans="1:5" s="4" customFormat="1" ht="57">
       <c r="A169" s="3" t="s">
         <v>823</v>
       </c>
@@ -16034,12 +16304,12 @@
         <v>827</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="170" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A170" s="3" t="s">
         <v>828</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>829</v>
+        <v>1750</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>830</v>
@@ -16051,12 +16321,12 @@
         <v>832</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="171" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A171" s="3" t="s">
         <v>833</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>834</v>
+        <v>1751</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>835</v>
@@ -16068,12 +16338,12 @@
         <v>837</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A172" s="3" t="s">
         <v>838</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>839</v>
+        <v>1752</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>840</v>
@@ -16085,12 +16355,12 @@
         <v>842</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A173" s="3" t="s">
         <v>843</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>844</v>
+        <v>1753</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>845</v>
@@ -16107,7 +16377,7 @@
         <v>848</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>849</v>
+        <v>1754</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>850</v>
@@ -16153,7 +16423,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="177" spans="1:5" s="4" customFormat="1">
       <c r="A177" s="3" t="s">
         <v>863</v>
       </c>
@@ -16170,7 +16440,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="178" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A178" s="3" t="s">
         <v>868</v>
       </c>
@@ -16204,7 +16474,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="4" customFormat="1" ht="75">
+    <row r="180" spans="1:5" s="4" customFormat="1" ht="57">
       <c r="A180" s="3" t="s">
         <v>878</v>
       </c>
@@ -16238,7 +16508,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="182" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A182" s="3" t="s">
         <v>888</v>
       </c>
@@ -16255,7 +16525,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="183" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A183" s="3" t="s">
         <v>893</v>
       </c>
@@ -16289,7 +16559,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="185" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A185" s="3" t="s">
         <v>903</v>
       </c>
@@ -16323,7 +16593,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="187" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A187" s="3" t="s">
         <v>913</v>
       </c>
@@ -16340,7 +16610,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="4" customFormat="1" ht="135">
+    <row r="188" spans="1:5" s="4" customFormat="1" ht="114">
       <c r="A188" s="3" t="s">
         <v>918</v>
       </c>
@@ -16357,7 +16627,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="4" customFormat="1" ht="75">
+    <row r="189" spans="1:5" s="4" customFormat="1" ht="71.25">
       <c r="A189" s="3" t="s">
         <v>923</v>
       </c>
@@ -16374,7 +16644,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="190" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A190" s="3" t="s">
         <v>928</v>
       </c>
@@ -16391,7 +16661,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="191" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A191" s="3" t="s">
         <v>933</v>
       </c>
@@ -16408,7 +16678,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="192" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A192" s="3" t="s">
         <v>938</v>
       </c>
@@ -16425,7 +16695,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="193" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A193" s="3" t="s">
         <v>943</v>
       </c>
@@ -16442,7 +16712,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="4" customFormat="1" ht="105">
+    <row r="194" spans="1:5" s="4" customFormat="1" ht="99.75">
       <c r="A194" s="3" t="s">
         <v>948</v>
       </c>
@@ -16459,7 +16729,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="4" customFormat="1" ht="105">
+    <row r="195" spans="1:5" s="4" customFormat="1" ht="85.5">
       <c r="A195" s="3" t="s">
         <v>953</v>
       </c>
@@ -16476,7 +16746,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="196" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A196" s="3" t="s">
         <v>958</v>
       </c>
@@ -16493,7 +16763,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="197" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A197" s="3" t="s">
         <v>963</v>
       </c>
@@ -16510,7 +16780,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="198" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A198" s="3" t="s">
         <v>968</v>
       </c>
@@ -16532,7 +16802,7 @@
         <v>973</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>974</v>
+        <v>1755</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>975</v>
@@ -16549,7 +16819,7 @@
         <v>978</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>979</v>
+        <v>1756</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>980</v>
@@ -16561,12 +16831,12 @@
         <v>982</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="201" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A201" s="3" t="s">
         <v>983</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>984</v>
+        <v>1757</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>985</v>
@@ -16646,7 +16916,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="206" spans="1:5" s="4" customFormat="1">
       <c r="A206" s="3" t="s">
         <v>1008</v>
       </c>
@@ -16663,7 +16933,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="207" spans="1:5" s="4" customFormat="1">
       <c r="A207" s="3" t="s">
         <v>1013</v>
       </c>
@@ -16697,7 +16967,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="209" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A209" s="3" t="s">
         <v>1023</v>
       </c>
@@ -16714,7 +16984,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="210" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A210" s="3" t="s">
         <v>1028</v>
       </c>
@@ -16731,7 +17001,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="211" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A211" s="3" t="s">
         <v>1033</v>
       </c>
@@ -16765,7 +17035,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="213" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A213" s="3" t="s">
         <v>1043</v>
       </c>
@@ -16782,7 +17052,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="214" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A214" s="3" t="s">
         <v>1048</v>
       </c>
@@ -16799,7 +17069,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="215" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A215" s="3" t="s">
         <v>1053</v>
       </c>
@@ -16816,7 +17086,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="216" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A216" s="3" t="s">
         <v>1058</v>
       </c>
@@ -16833,7 +17103,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="217" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A217" s="3" t="s">
         <v>1063</v>
       </c>
@@ -16991,7 +17261,7 @@
         <v>1108</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>1109</v>
+        <v>1758</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>95</v>
@@ -17003,12 +17273,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="227" spans="1:5" s="4" customFormat="1">
       <c r="A227" s="3" t="s">
         <v>1111</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>1112</v>
+        <v>1759</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>1113</v>
@@ -17025,7 +17295,7 @@
         <v>1116</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>1117</v>
+        <v>1760</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>1118</v>
@@ -17042,7 +17312,7 @@
         <v>1121</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>1122</v>
+        <v>1761</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>1123</v>
@@ -17059,7 +17329,7 @@
         <v>1126</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>1127</v>
+        <v>1762</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>1128</v>
@@ -17093,7 +17363,7 @@
         <v>1136</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>1137</v>
+        <v>1763</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>1138</v>
@@ -17122,7 +17392,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="234" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="234" spans="1:5" s="4" customFormat="1">
       <c r="A234" s="3" t="s">
         <v>1146</v>
       </c>
@@ -17156,7 +17426,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="236" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A236" s="3" t="s">
         <v>1156</v>
       </c>
@@ -17173,7 +17443,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="237" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A237" s="3" t="s">
         <v>1160</v>
       </c>
@@ -17207,7 +17477,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="239" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A239" s="3" t="s">
         <v>1170</v>
       </c>
@@ -17224,7 +17494,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="240" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="240" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A240" s="3" t="s">
         <v>1175</v>
       </c>
@@ -17292,7 +17562,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="244" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="244" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A244" s="3" t="s">
         <v>1195</v>
       </c>
@@ -17309,7 +17579,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="245" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="245" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A245" s="3" t="s">
         <v>1200</v>
       </c>
@@ -17326,7 +17596,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="246" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="246" spans="1:5" s="4" customFormat="1" ht="42.75">
       <c r="A246" s="3" t="s">
         <v>1205</v>
       </c>
@@ -17360,7 +17630,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="248" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="248" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A248" s="3" t="s">
         <v>1215</v>
       </c>
@@ -17377,7 +17647,6563 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="249" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A249" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" s="4" customFormat="1">
+      <c r="A250" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D250" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E272" s="11" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E273" s="11" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D275" s="11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D276" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="28.5">
+      <c r="A277" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D277" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D278" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D279" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E279" s="11" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D280" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E280" s="11" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D281" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D282" s="11" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D283" s="11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E283" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D284" s="11" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D285" s="11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E285" s="11" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D286" s="11" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E286" s="11" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C287" s="11" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D287" s="11" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E287" s="11" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D288" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E288" s="13" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D289" s="11" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E289" s="11" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E290" s="11" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="28.5">
+      <c r="A291" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C291" s="11" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E291" s="11" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C292" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="28.5">
+      <c r="A293" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D293" s="11" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="28.5">
+      <c r="A295" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D295" s="11" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E295" s="11" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D296" s="11" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D297" s="11" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E297" s="11" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C298" s="11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D298" s="11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C299" s="11" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D299" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E299" s="11" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D300" s="11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E300" s="11" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C301" s="11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D301" s="11" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E301" s="11" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C302" s="11" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D302" s="11" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C303" s="11" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D303" s="11" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E303" s="11" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C304" s="11" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D304" s="11" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E304" s="11" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C305" s="11" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D305" s="11" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E305" s="11" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C306" s="11" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E306" s="11" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C307" s="11" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E307" s="11" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C309" s="11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D309" s="11" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E309" s="11" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B310" s="13" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C310" s="13" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D310" s="13" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E310" s="13" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D311" s="11" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E311" s="11" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D312" s="11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E312" s="11" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D313" s="11" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E313" s="11" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B314" s="13" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C314" s="13" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D314" s="13" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E314" s="13" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B315" s="13" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C315" s="13" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D315" s="13" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E315" s="13" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D316" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E316" s="13" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C317" s="11" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D317" s="11" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E317" s="11" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C318" s="11" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D318" s="11" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E318" s="11" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="28.5">
+      <c r="A325" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C325" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D325" s="11" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E325" s="11" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="28.5">
+      <c r="A326" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C328" s="11" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D328" s="11" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E328" s="11" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="28.5">
+      <c r="A329" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="28.5">
+      <c r="A330" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="42.75">
+      <c r="A331" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="42.75">
+      <c r="A332" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="28.5">
+      <c r="A333" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C334" s="11" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D334" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E334" s="11" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D335" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E335" s="11" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D336" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E336" s="11" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C337" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D337" s="11" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E337" s="11" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="57">
+      <c r="A338" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="57">
+      <c r="A339" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C339" s="11" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D339" s="11" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E339" s="11" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="26.25">
+      <c r="A340" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C340" s="11" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D340" s="11" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E340" s="11" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F340" s="14"/>
+    </row>
+    <row r="341" spans="1:6" ht="28.5">
+      <c r="A341" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C341" s="11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D341" s="11" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E341" s="11" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="28.5">
+      <c r="A342" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C342" s="11" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D342" s="11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E342" s="11" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="28.5">
+      <c r="A343" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C343" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D343" s="11" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E343" s="11" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="28.5">
+      <c r="A344" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C344" s="11" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D344" s="11" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E344" s="11" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="28.5">
+      <c r="A346" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B346" s="15" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C346" s="15" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D346" s="15" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E346" s="15" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B347" s="15" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C347" s="15" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D347" s="15" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E347" s="15" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="28.5">
+      <c r="A348" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B348" s="15" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C348" s="15" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D348" s="15" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E348" s="15" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B349" s="15" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C349" s="15" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D349" s="15" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E349" s="15" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B350" s="15" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C350" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D350" s="15" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E350" s="15" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B351" s="15" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C351" s="15" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D351" s="15" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E351" s="15" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B352" s="15" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C352" s="15" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D352" s="15" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E352" s="15" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B353" s="15" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C353" s="15" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D353" s="15" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E353" s="15" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B354" s="15" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C354" s="15" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D354" s="15" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E354" s="15" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B355" s="15" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C355" s="15" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D355" s="15" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E355" s="15" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B357" s="15" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C357" s="15" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D357" s="15" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E357" s="15" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B358" s="15" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C358" s="15" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D358" s="15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E358" s="15" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B359" s="15" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C359" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D359" s="15" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E359" s="15" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B360" s="15" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C360" s="15" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D360" s="15" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E360" s="15" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="28.5">
+      <c r="A361" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B361" s="15" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C361" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D361" s="15" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E361" s="15" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B362" s="15" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C362" s="15" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D362" s="15" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E362" s="15" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B363" s="15" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C363" s="15" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D363" s="15" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E363" s="15" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B364" s="15" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C364" s="15" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D364" s="15" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E364" s="15" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B365" s="15" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C365" s="15" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D365" s="15" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E365" s="15" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B367" s="15" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C367" s="15" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D367" s="15" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E367" s="15" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B368" s="15" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C368" s="15" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D368" s="15" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E368" s="15" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B369" s="15" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C369" s="15" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D369" s="15" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B370" s="15" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C370" s="15" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D370" s="15" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E370" s="15" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B371" s="15" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C371" s="15" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D371" s="15" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E371" s="15" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="28.5">
+      <c r="A372" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B372" s="15" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C372" s="15" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D372" s="15" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E372" s="15" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B373" s="15" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C373" s="15" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D373" s="15" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E373" s="15" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B376" s="15" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C376" s="15" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D376" s="15" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E376" s="15" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B377" s="15" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C377" s="15" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D377" s="15" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E377" s="15" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B378" s="15" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C378" s="15" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D378" s="15" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E378" s="15" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="3" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B379" s="15" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C379" s="15" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D379" s="15" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E379" s="15" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B380" s="15" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C380" s="15" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D380" s="15" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E380" s="15" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B381" s="15" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C381" s="15" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D381" s="15" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E381" s="15" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B382" s="15" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C382" s="15" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D382" s="15" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E382" s="15" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B383" s="15" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C383" s="15" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D383" s="15" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E383" s="15" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B384" s="15" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C384" s="15" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D384" s="15" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E384" s="15" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E375" xr:uid="{AAF4C18C-2D72-4199-BAD0-E065A11CBF01}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9071EFD0-1812-427C-B2F8-319A20F057E5}">
+  <dimension ref="A1:AQ250"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="44.3984375" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.86328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.3984375" style="3"/>
+    <col min="3" max="3" width="50.265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.3984375" style="3" customWidth="1"/>
+    <col min="5" max="43" width="44.3984375" style="4"/>
+    <col min="44" max="16384" width="44.3984375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1">
+      <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1">
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1">
+      <c r="A19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1">
+      <c r="A21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1">
+      <c r="A22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1">
+      <c r="A24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1">
+      <c r="A25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1">
+      <c r="A26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1">
+      <c r="A27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1">
+      <c r="A28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1">
+      <c r="A29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1">
+      <c r="A30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1">
+      <c r="A31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A34" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A35" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="4" customFormat="1">
+      <c r="A36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="4" customFormat="1">
+      <c r="A37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A38" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="4" customFormat="1">
+      <c r="A39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="4" customFormat="1">
+      <c r="A40" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="4" customFormat="1">
+      <c r="A41" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="4" customFormat="1">
+      <c r="A42" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="4" customFormat="1">
+      <c r="A43" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="4" customFormat="1">
+      <c r="A44" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="4" customFormat="1">
+      <c r="A45" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="4" customFormat="1">
+      <c r="A46" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="4" customFormat="1">
+      <c r="A47" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="4" customFormat="1">
+      <c r="A48" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="4" customFormat="1">
+      <c r="A49" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="4" customFormat="1">
+      <c r="A50" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="4" customFormat="1">
+      <c r="A51" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="57">
+      <c r="A52" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A53" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="4" customFormat="1">
+      <c r="A54" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="4" customFormat="1">
+      <c r="A55" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1">
+      <c r="A56" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="4" customFormat="1">
+      <c r="A57" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1">
+      <c r="A58" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="4" customFormat="1">
+      <c r="A59" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="4" customFormat="1">
+      <c r="A60" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="4" customFormat="1">
+      <c r="A61" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="4" customFormat="1">
+      <c r="A62" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="4" customFormat="1">
+      <c r="A63" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="4" customFormat="1">
+      <c r="A64" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="4" customFormat="1">
+      <c r="A65" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="4" customFormat="1">
+      <c r="A66" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="4" customFormat="1">
+      <c r="A67" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="4" customFormat="1">
+      <c r="A68" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="4" customFormat="1">
+      <c r="A69" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="4" customFormat="1">
+      <c r="A70" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="4" customFormat="1">
+      <c r="A71" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A72" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="4" customFormat="1">
+      <c r="A73" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="4" customFormat="1">
+      <c r="A74" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="4" customFormat="1">
+      <c r="A75" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A76" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A77" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A78" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A79" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A80" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="4" customFormat="1">
+      <c r="A81" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="4" customFormat="1">
+      <c r="A82" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="4" customFormat="1">
+      <c r="A83" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="4" customFormat="1">
+      <c r="A84" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="4" customFormat="1">
+      <c r="A85" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="4" customFormat="1">
+      <c r="A86" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="4" customFormat="1">
+      <c r="A87" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="4" customFormat="1">
+      <c r="A88" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A89" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A90" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A91" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="4" customFormat="1">
+      <c r="A92" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="4" customFormat="1">
+      <c r="A93" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="4" customFormat="1">
+      <c r="A94" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="4" customFormat="1">
+      <c r="A95" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="4" customFormat="1">
+      <c r="A96" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="4" customFormat="1">
+      <c r="A97" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="4" customFormat="1">
+      <c r="A98" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="4" customFormat="1">
+      <c r="A99" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="4" customFormat="1">
+      <c r="A100" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="4" customFormat="1">
+      <c r="A101" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A102" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="4" customFormat="1">
+      <c r="A103" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="4" customFormat="1">
+      <c r="A104" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="4" customFormat="1">
+      <c r="A105" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A106" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A107" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A108" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A109" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A110" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A111" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A112" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A113" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="4" customFormat="1">
+      <c r="A114" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A115" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="4" customFormat="1">
+      <c r="A116" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="4" customFormat="1">
+      <c r="A117" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="4" customFormat="1">
+      <c r="A118" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="4" customFormat="1">
+      <c r="A119" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="4" customFormat="1">
+      <c r="A120" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="4" customFormat="1">
+      <c r="A121" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" s="4" customFormat="1">
+      <c r="A122" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A123" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="4" customFormat="1">
+      <c r="A124" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="4" customFormat="1">
+      <c r="A125" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="4" customFormat="1">
+      <c r="A126" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="4" customFormat="1">
+      <c r="A127" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="4" customFormat="1">
+      <c r="A128" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A129" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="4" customFormat="1">
+      <c r="A130" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="4" customFormat="1">
+      <c r="A131" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A132" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A133" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="4" customFormat="1" ht="71.25">
+      <c r="A134" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="4" customFormat="1" ht="66.599999999999994" customHeight="1">
+      <c r="A135" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="4" customFormat="1">
+      <c r="A136" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="4" customFormat="1">
+      <c r="A137" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A138" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A139" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A140" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A141" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="4" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A142" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A143" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A144" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="4" customFormat="1">
+      <c r="A145" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="4" customFormat="1">
+      <c r="A146" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="4" customFormat="1">
+      <c r="A147" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A148" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A149" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="4" customFormat="1">
+      <c r="A150" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A151" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="4" customFormat="1">
+      <c r="A152" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A153" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A154" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A155" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A156" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A157" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="4" customFormat="1" ht="47.1" customHeight="1">
+      <c r="A158" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A159" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="4" customFormat="1">
+      <c r="A160" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A161" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A162" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="4" customFormat="1" ht="57">
+      <c r="A163" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A164" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="4" customFormat="1">
+      <c r="A165" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A166" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A167" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="4" customFormat="1">
+      <c r="A168" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="4" customFormat="1" ht="57">
+      <c r="A169" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A170" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A171" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A172" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A173" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" s="4" customFormat="1" ht="44.1" customHeight="1">
+      <c r="A174" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="4" customFormat="1">
+      <c r="A175" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" s="4" customFormat="1">
+      <c r="A176" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="4" customFormat="1">
+      <c r="A177" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A178" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="4" customFormat="1">
+      <c r="A179" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="4" customFormat="1" ht="57">
+      <c r="A180" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="4" customFormat="1">
+      <c r="A181" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A182" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A183" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" s="4" customFormat="1">
+      <c r="A184" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A185" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" s="4" customFormat="1">
+      <c r="A186" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A187" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="4" customFormat="1" ht="114">
+      <c r="A188" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" s="4" customFormat="1" ht="71.25">
+      <c r="A189" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A190" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A191" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A192" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A193" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" s="4" customFormat="1" ht="99.75">
+      <c r="A194" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" s="4" customFormat="1" ht="85.5">
+      <c r="A195" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A196" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A197" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A198" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" s="4" customFormat="1">
+      <c r="A199" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="4" customFormat="1">
+      <c r="A200" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A201" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" s="4" customFormat="1">
+      <c r="A202" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" s="4" customFormat="1">
+      <c r="A203" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" s="4" customFormat="1">
+      <c r="A204" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" s="4" customFormat="1">
+      <c r="A205" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" s="4" customFormat="1">
+      <c r="A206" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" s="4" customFormat="1">
+      <c r="A207" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="4" customFormat="1">
+      <c r="A208" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A209" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A210" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A211" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" s="4" customFormat="1">
+      <c r="A212" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A213" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A214" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A215" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A216" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A217" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" s="4" customFormat="1">
+      <c r="A218" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" s="4" customFormat="1">
+      <c r="A219" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" s="4" customFormat="1">
+      <c r="A220" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" s="4" customFormat="1">
+      <c r="A221" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" s="4" customFormat="1">
+      <c r="A222" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" s="4" customFormat="1">
+      <c r="A223" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" s="4" customFormat="1">
+      <c r="A224" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" s="4" customFormat="1">
+      <c r="A225" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" s="4" customFormat="1">
+      <c r="A226" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" s="4" customFormat="1">
+      <c r="A227" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" s="4" customFormat="1">
+      <c r="A228" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" s="4" customFormat="1">
+      <c r="A229" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" s="4" customFormat="1">
+      <c r="A230" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" s="4" customFormat="1">
+      <c r="A231" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" s="4" customFormat="1">
+      <c r="A232" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" s="4" customFormat="1" ht="42.95" customHeight="1">
+      <c r="A233" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" s="4" customFormat="1">
+      <c r="A234" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" s="4" customFormat="1">
+      <c r="A235" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A236" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A237" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" s="4" customFormat="1">
+      <c r="A238" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A239" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A240" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" s="4" customFormat="1">
+      <c r="A241" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" s="4" customFormat="1">
+      <c r="A242" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" s="4" customFormat="1">
+      <c r="A243" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A244" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A245" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" s="4" customFormat="1" ht="42.75">
+      <c r="A246" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" s="4" customFormat="1">
+      <c r="A247" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" s="4" customFormat="1" ht="28.5">
+      <c r="A248" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" s="4" customFormat="1" ht="28.5">
       <c r="A249" s="3" t="s">
         <v>1220</v>
       </c>
@@ -17408,15 +24234,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6AEDAA-E1BF-482E-9479-430BD4552F9B}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="78" bestFit="1" customWidth="1"/>
   </cols>
@@ -17431,6 +24257,11 @@
         <v>1228</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Demo_Datasets/HW/Multi-Lingual Phrases - En Fr Es Pt.xlsx
+++ b/Demo_Datasets/HW/Multi-Lingual Phrases - En Fr Es Pt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mia\Biostat Global Dropbox\Mia Yu\My Github Repost\missvcqiR\Demo_Datasets\ES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9189F3-73DA-4734-8D13-75220CB91545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588AA874-CF27-4A85-8BDB-4D9F85D25A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{50234D21-0CB7-4831-B1A7-1E2C296C3191}"/>
   </bookViews>
@@ -6197,7 +6197,7 @@
     <t>Relacionado con Cuidadores: Razones de la OPV de los encuestados que eran elegibles para recibir más de 1 dosis</t>
   </si>
   <si>
-    <t>Update following strings: OS_225, OS_142, OS_148,  OS_149, OS_160, OS_384, OS_385, OS_386, OS_387, OS_388 on 2024-03-11</t>
+    <t>Update following strings: OS_225, OS_142, OS_148,  OS_149, OS_160, OS_226, OS_227, OS_228, OS_229, OS_384, OS_385, OS_386, OS_387, OS_388 on 2024-03-11</t>
   </si>
 </sst>
 </file>
@@ -6696,8 +6696,8 @@
   <dimension ref="A1:AQ389"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E150" sqref="B150:E150"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.3984375" defaultRowHeight="14.25"/>
@@ -10556,16 +10556,16 @@
       <c r="A227" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C227" s="7" t="s">
+      <c r="B227" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C227" s="17" t="s">
         <v>1113</v>
       </c>
-      <c r="D227" s="6" t="s">
+      <c r="D227" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="E227" s="6" t="s">
+      <c r="E227" s="1" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -10573,16 +10573,16 @@
       <c r="A228" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="B228" s="6" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C228" s="7" t="s">
+      <c r="B228" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C228" s="17" t="s">
         <v>1118</v>
       </c>
-      <c r="D228" s="6" t="s">
+      <c r="D228" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="E228" s="6" t="s">
+      <c r="E228" s="1" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -10590,16 +10590,16 @@
       <c r="A229" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C229" s="7" t="s">
+      <c r="B229" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C229" s="17" t="s">
         <v>1123</v>
       </c>
-      <c r="D229" s="6" t="s">
+      <c r="D229" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="E229" s="6" t="s">
+      <c r="E229" s="1" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -10607,16 +10607,16 @@
       <c r="A230" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C230" s="7" t="s">
+      <c r="B230" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C230" s="17" t="s">
         <v>1128</v>
       </c>
-      <c r="D230" s="6" t="s">
+      <c r="D230" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="E230" s="6" t="s">
+      <c r="E230" s="1" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -24239,7 +24239,7 @@
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
